--- a/в бланки заводов/Останкино КИ/ostankino_ki/UZ/чистый бланк/Бланк заказа Mos prod Torg 08.10.25.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/UZ/чистый бланк/Бланк заказа Mos prod Torg 08.10.25.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8EB9DB-5AFC-4ADB-BA8B-BF00FB2F338A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B11556-C514-46D4-BDB4-515BD8BA91B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">машины!$A$9:$I$102</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1649,8 +1649,8 @@
   <dimension ref="A1:R1624"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J105" sqref="J105"/>
+      <pane ySplit="9" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1702,7 +1702,9 @@
       <c r="C3" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="43"/>
+      <c r="D3" s="43">
+        <v>45951</v>
+      </c>
       <c r="E3" s="51" t="s">
         <v>1</v>
       </c>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/UZ/чистый бланк/Бланк заказа Mos prod Torg 08.10.25.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/UZ/чистый бланк/Бланк заказа Mos prod Torg 08.10.25.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B11556-C514-46D4-BDB4-515BD8BA91B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEEDB1E-B030-4E24-B5E3-B94F0988DBD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1650,7 +1650,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1703,7 +1703,7 @@
         <v>22</v>
       </c>
       <c r="D3" s="43">
-        <v>45951</v>
+        <v>45958</v>
       </c>
       <c r="E3" s="51" t="s">
         <v>1</v>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/UZ/чистый бланк/Бланк заказа Mos prod Torg 08.10.25.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/UZ/чистый бланк/Бланк заказа Mos prod Torg 08.10.25.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEEDB1E-B030-4E24-B5E3-B94F0988DBD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA656AB1-86E0-4A3B-A753-ABD4A69F9203}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1703,7 +1703,7 @@
         <v>22</v>
       </c>
       <c r="D3" s="43">
-        <v>45958</v>
+        <v>45965</v>
       </c>
       <c r="E3" s="51" t="s">
         <v>1</v>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/UZ/чистый бланк/Бланк заказа Mos prod Torg 08.10.25.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/UZ/чистый бланк/Бланк заказа Mos prod Torg 08.10.25.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA656AB1-86E0-4A3B-A753-ABD4A69F9203}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881B0E09-F3D7-4D34-8F97-576B52A00E04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1703,7 +1703,7 @@
         <v>22</v>
       </c>
       <c r="D3" s="43">
-        <v>45965</v>
+        <v>45979</v>
       </c>
       <c r="E3" s="51" t="s">
         <v>1</v>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/UZ/чистый бланк/Бланк заказа Mos prod Torg 08.10.25.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/UZ/чистый бланк/Бланк заказа Mos prod Torg 08.10.25.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881B0E09-F3D7-4D34-8F97-576B52A00E04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F7BF2F-F4B7-4644-A51C-9D84401971CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1650,7 +1650,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="H105" sqref="H105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1703,7 +1703,7 @@
         <v>22</v>
       </c>
       <c r="D3" s="43">
-        <v>45979</v>
+        <v>45993</v>
       </c>
       <c r="E3" s="51" t="s">
         <v>1</v>
